--- a/ClueBoardTestLocations.xlsx
+++ b/ClueBoardTestLocations.xlsx
@@ -584,7 +584,7 @@
   <dimension ref="A1:AC33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
